--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H2">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.155977333333334</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N2">
-        <v>9.467932000000001</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q2">
-        <v>0.9190868749906669</v>
+        <v>3.747802893546667</v>
       </c>
       <c r="R2">
-        <v>8.271781874916</v>
+        <v>33.73022604192001</v>
       </c>
       <c r="S2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="T2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H3">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q3">
-        <v>0.9219921927603334</v>
+        <v>4.111535380197334</v>
       </c>
       <c r="R3">
-        <v>8.297929734843001</v>
+        <v>37.003818421776</v>
       </c>
       <c r="S3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="T3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H4">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.496042666666666</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N4">
-        <v>7.488128</v>
+        <v>9.981073</v>
       </c>
       <c r="O4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q4">
-        <v>0.7269000414293333</v>
+        <v>4.320713345018667</v>
       </c>
       <c r="R4">
-        <v>6.542100372864</v>
+        <v>38.886420105168</v>
       </c>
       <c r="S4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="T4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.298672</v>
+      </c>
+      <c r="H5">
+        <v>3.896016</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.020115</v>
+      </c>
+      <c r="N5">
+        <v>0.060345</v>
+      </c>
+      <c r="O5">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P5">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q5">
+        <v>0.02612278728</v>
+      </c>
+      <c r="R5">
+        <v>0.23510508552</v>
+      </c>
+      <c r="S5">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="T5">
+        <v>0.002140128955315263</v>
       </c>
     </row>
   </sheetData>
